--- a/document/BenchMarking-Model-Load-and-Model-Predict_version-15-Gesture.xlsx
+++ b/document/BenchMarking-Model-Load-and-Model-Predict_version-15-Gesture.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -1223,21 +1223,13 @@
     <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,6 +1277,21 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1367,6 +1374,12 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,33 +1394,6 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1426,6 +1412,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1474,6 +1469,27 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1560,22 +1576,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5597,7 +5597,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5742,7 +5741,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5893,7 +5891,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6440,7 +6437,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6591,7 +6587,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10757,7 +10752,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13210,7 +13204,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -33735,8 +33728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AE58"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="E34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB21" sqref="AB21:AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -33745,53 +33738,53 @@
   </cols>
   <sheetData>
     <row r="4" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="7" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P7" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q7" s="87" t="s">
+      <c r="Q7" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="88" t="s">
+      <c r="R7" s="106"/>
+      <c r="S7" s="106"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="V7" s="88"/>
-      <c r="W7" s="88"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="88"/>
-      <c r="Z7" s="88"/>
-      <c r="AA7" s="88"/>
-      <c r="AB7" s="89" t="s">
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="91"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="89"/>
     </row>
     <row r="8" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P8" s="102">
+      <c r="P8" s="100">
         <v>1</v>
       </c>
-      <c r="Q8" s="92" t="s">
+      <c r="Q8" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="93"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="94"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
       <c r="U8" s="31"/>
       <c r="V8" s="31"/>
       <c r="W8" s="31"/>
@@ -33799,17 +33792,17 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
-      <c r="AB8" s="92"/>
-      <c r="AC8" s="93"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="94"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="92"/>
     </row>
     <row r="9" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P9" s="103"/>
-      <c r="Q9" s="95"/>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="97"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="95"/>
       <c r="U9" s="32"/>
       <c r="V9" s="32"/>
       <c r="W9" s="32"/>
@@ -33817,17 +33810,17 @@
       <c r="Y9" s="32"/>
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="97"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="95"/>
     </row>
     <row r="10" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P10" s="103"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="97"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="95"/>
       <c r="U10" s="32"/>
       <c r="V10" s="32"/>
       <c r="W10" s="32"/>
@@ -33835,17 +33828,17 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="97"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="95"/>
     </row>
     <row r="11" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P11" s="103"/>
-      <c r="Q11" s="95"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="97"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="94"/>
+      <c r="S11" s="94"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="32"/>
       <c r="V11" s="32"/>
       <c r="W11" s="32"/>
@@ -33853,17 +33846,17 @@
       <c r="Y11" s="32"/>
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="97"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="94"/>
+      <c r="AE11" s="95"/>
     </row>
     <row r="12" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P12" s="103"/>
-      <c r="Q12" s="95"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="97"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="94"/>
+      <c r="S12" s="94"/>
+      <c r="T12" s="95"/>
       <c r="U12" s="32"/>
       <c r="V12" s="32"/>
       <c r="W12" s="32"/>
@@ -33871,17 +33864,17 @@
       <c r="Y12" s="32"/>
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="97"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="94"/>
+      <c r="AD12" s="94"/>
+      <c r="AE12" s="95"/>
     </row>
     <row r="13" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P13" s="103"/>
-      <c r="Q13" s="95"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="97"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="94"/>
+      <c r="S13" s="94"/>
+      <c r="T13" s="95"/>
       <c r="U13" s="32"/>
       <c r="V13" s="32"/>
       <c r="W13" s="32"/>
@@ -33889,17 +33882,17 @@
       <c r="Y13" s="32"/>
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="97"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="94"/>
+      <c r="AD13" s="94"/>
+      <c r="AE13" s="95"/>
     </row>
     <row r="14" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P14" s="103"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="97"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="95"/>
       <c r="U14" s="32"/>
       <c r="V14" s="32"/>
       <c r="W14" s="32"/>
@@ -33907,17 +33900,17 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="97"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="94"/>
+      <c r="AD14" s="94"/>
+      <c r="AE14" s="95"/>
     </row>
     <row r="15" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P15" s="103"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="97"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="93"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
+      <c r="T15" s="95"/>
       <c r="U15" s="32"/>
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
@@ -33925,17 +33918,17 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="97"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="94"/>
+      <c r="AD15" s="94"/>
+      <c r="AE15" s="95"/>
     </row>
     <row r="16" spans="16:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P16" s="103"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="97"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="93"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
+      <c r="T16" s="95"/>
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -33943,24 +33936,24 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="97"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="94"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="95"/>
     </row>
     <row r="17" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="95"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="97"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95"/>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -33968,10 +33961,10 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
       <c r="AA17" s="32"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="97"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="95"/>
     </row>
     <row r="18" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="58"/>
@@ -33979,11 +33972,11 @@
       <c r="F18" s="58"/>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
-      <c r="P18" s="103"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="97"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="93"/>
+      <c r="R18" s="94"/>
+      <c r="S18" s="94"/>
+      <c r="T18" s="95"/>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -33991,17 +33984,17 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
       <c r="AA18" s="32"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="97"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="95"/>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P19" s="103"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="97"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="93"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="95"/>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -34009,28 +34002,28 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
       <c r="AA19" s="32"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="97"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="95"/>
     </row>
     <row r="20" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="84" t="s">
+      <c r="B20" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="84"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="99"/>
-      <c r="S20" s="99"/>
-      <c r="T20" s="100"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="103"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="97"/>
+      <c r="S20" s="97"/>
+      <c r="T20" s="98"/>
       <c r="U20" s="33"/>
       <c r="V20" s="33"/>
       <c r="W20" s="33"/>
@@ -34038,30 +34031,30 @@
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="99"/>
-      <c r="AE20" s="100"/>
+      <c r="AB20" s="96"/>
+      <c r="AC20" s="97"/>
+      <c r="AD20" s="97"/>
+      <c r="AE20" s="98"/>
     </row>
     <row r="21" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="84"/>
-      <c r="P21" s="102">
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="P21" s="100">
         <v>2</v>
       </c>
-      <c r="Q21" s="129" t="s">
+      <c r="Q21" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="116"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="119"/>
       <c r="U21" s="34"/>
       <c r="V21" s="31"/>
       <c r="W21" s="31"/>
@@ -34069,28 +34062,28 @@
       <c r="Y21" s="31"/>
       <c r="Z21" s="31"/>
       <c r="AA21" s="35"/>
-      <c r="AB21" s="105" t="s">
+      <c r="AB21" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="AC21" s="106"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="107"/>
+      <c r="AC21" s="109"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
     </row>
     <row r="22" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="P22" s="103"/>
-      <c r="Q22" s="117"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="119"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="121"/>
+      <c r="S22" s="121"/>
+      <c r="T22" s="122"/>
       <c r="U22" s="36"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -34098,26 +34091,26 @@
       <c r="Y22" s="32"/>
       <c r="Z22" s="32"/>
       <c r="AA22" s="37"/>
-      <c r="AB22" s="108"/>
-      <c r="AC22" s="109"/>
-      <c r="AD22" s="109"/>
-      <c r="AE22" s="110"/>
+      <c r="AB22" s="111"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="113"/>
     </row>
     <row r="23" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="P23" s="103"/>
-      <c r="Q23" s="117"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="119"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="122"/>
       <c r="U23" s="36"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -34125,26 +34118,26 @@
       <c r="Y23" s="32"/>
       <c r="Z23" s="32"/>
       <c r="AA23" s="37"/>
-      <c r="AB23" s="108"/>
-      <c r="AC23" s="109"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="110"/>
+      <c r="AB23" s="111"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="113"/>
     </row>
     <row r="24" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="117"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="119"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="103"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="120"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="122"/>
       <c r="U24" s="36"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -34152,10 +34145,10 @@
       <c r="Y24" s="32"/>
       <c r="Z24" s="32"/>
       <c r="AA24" s="37"/>
-      <c r="AB24" s="108"/>
-      <c r="AC24" s="109"/>
-      <c r="AD24" s="109"/>
-      <c r="AE24" s="110"/>
+      <c r="AB24" s="111"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="113"/>
     </row>
     <row r="25" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="59"/>
@@ -34167,11 +34160,11 @@
       <c r="H25" s="59"/>
       <c r="I25" s="59"/>
       <c r="J25" s="59"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="119"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="120"/>
+      <c r="R25" s="121"/>
+      <c r="S25" s="121"/>
+      <c r="T25" s="122"/>
       <c r="U25" s="36"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -34179,28 +34172,28 @@
       <c r="Y25" s="32"/>
       <c r="Z25" s="32"/>
       <c r="AA25" s="37"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="109"/>
-      <c r="AE25" s="110"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="113"/>
     </row>
     <row r="26" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="123" t="s">
+      <c r="B26" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="117"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="119"/>
+      <c r="C26" s="126"/>
+      <c r="D26" s="126"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="126"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="126"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="121"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="122"/>
       <c r="U26" s="36"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -34208,26 +34201,26 @@
       <c r="Y26" s="32"/>
       <c r="Z26" s="32"/>
       <c r="AA26" s="37"/>
-      <c r="AB26" s="108"/>
-      <c r="AC26" s="109"/>
-      <c r="AD26" s="109"/>
-      <c r="AE26" s="110"/>
+      <c r="AB26" s="111"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="113"/>
     </row>
     <row r="27" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="117"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="119"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
+      <c r="D27" s="126"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="126"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="126"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="120"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="122"/>
       <c r="U27" s="36"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -34235,26 +34228,26 @@
       <c r="Y27" s="32"/>
       <c r="Z27" s="32"/>
       <c r="AA27" s="37"/>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="109"/>
-      <c r="AD27" s="109"/>
-      <c r="AE27" s="110"/>
+      <c r="AB27" s="111"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="113"/>
     </row>
     <row r="28" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="117"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="119"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
+      <c r="D28" s="126"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="126"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="120"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="122"/>
       <c r="U28" s="36"/>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -34262,10 +34255,10 @@
       <c r="Y28" s="32"/>
       <c r="Z28" s="32"/>
       <c r="AA28" s="37"/>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="109"/>
-      <c r="AD28" s="109"/>
-      <c r="AE28" s="110"/>
+      <c r="AB28" s="111"/>
+      <c r="AC28" s="112"/>
+      <c r="AD28" s="112"/>
+      <c r="AE28" s="113"/>
     </row>
     <row r="29" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="65"/>
@@ -34280,11 +34273,11 @@
       <c r="L29" s="38"/>
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="117"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="119"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="122"/>
       <c r="U29" s="36"/>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -34292,10 +34285,10 @@
       <c r="Y29" s="32"/>
       <c r="Z29" s="32"/>
       <c r="AA29" s="37"/>
-      <c r="AB29" s="108"/>
-      <c r="AC29" s="109"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="110"/>
+      <c r="AB29" s="111"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="113"/>
     </row>
     <row r="30" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="65"/>
@@ -34311,11 +34304,11 @@
       <c r="L30" s="38"/>
       <c r="M30" s="38"/>
       <c r="N30" s="38"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="117"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="119"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="120"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="122"/>
       <c r="U30" s="36"/>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -34323,10 +34316,10 @@
       <c r="Y30" s="32"/>
       <c r="Z30" s="32"/>
       <c r="AA30" s="37"/>
-      <c r="AB30" s="108"/>
-      <c r="AC30" s="109"/>
-      <c r="AD30" s="109"/>
-      <c r="AE30" s="110"/>
+      <c r="AB30" s="111"/>
+      <c r="AC30" s="112"/>
+      <c r="AD30" s="112"/>
+      <c r="AE30" s="113"/>
     </row>
     <row r="31" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="65"/>
@@ -34342,11 +34335,11 @@
       <c r="L31" s="39"/>
       <c r="M31" s="39"/>
       <c r="N31" s="39"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="117"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="119"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="120"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="122"/>
       <c r="U31" s="36"/>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
@@ -34354,28 +34347,28 @@
       <c r="Y31" s="32"/>
       <c r="Z31" s="32"/>
       <c r="AA31" s="37"/>
-      <c r="AB31" s="108"/>
-      <c r="AC31" s="109"/>
-      <c r="AD31" s="109"/>
-      <c r="AE31" s="110"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="113"/>
     </row>
     <row r="32" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="85" t="s">
+      <c r="B32" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
       <c r="E32" s="65"/>
       <c r="F32" s="65"/>
       <c r="G32" s="65"/>
       <c r="H32" s="65"/>
       <c r="I32" s="65"/>
       <c r="J32" s="65"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="122"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="123"/>
+      <c r="R32" s="124"/>
+      <c r="S32" s="124"/>
+      <c r="T32" s="125"/>
       <c r="U32" s="40"/>
       <c r="V32" s="33"/>
       <c r="W32" s="33"/>
@@ -34383,24 +34376,24 @@
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="111"/>
-      <c r="AC32" s="112"/>
-      <c r="AD32" s="112"/>
-      <c r="AE32" s="113"/>
+      <c r="AB32" s="114"/>
+      <c r="AC32" s="115"/>
+      <c r="AD32" s="115"/>
+      <c r="AE32" s="116"/>
     </row>
     <row r="33" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="P33" s="102">
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="P33" s="100">
         <v>3</v>
       </c>
-      <c r="Q33" s="129" t="s">
+      <c r="Q33" s="132" t="s">
         <v>16</v>
       </c>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="116"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="119"/>
       <c r="U33" s="31"/>
       <c r="V33" s="31"/>
       <c r="W33" s="31"/>
@@ -34408,19 +34401,19 @@
       <c r="Y33" s="31"/>
       <c r="Z33" s="31"/>
       <c r="AA33" s="35"/>
-      <c r="AB33" s="114" t="s">
+      <c r="AB33" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="AC33" s="115"/>
-      <c r="AD33" s="115"/>
-      <c r="AE33" s="116"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="118"/>
+      <c r="AE33" s="119"/>
     </row>
     <row r="34" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="103"/>
-      <c r="Q34" s="117"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="119"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="122"/>
       <c r="U34" s="42"/>
       <c r="V34" s="42"/>
       <c r="W34" s="42"/>
@@ -34428,17 +34421,17 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
       <c r="AA34" s="43"/>
-      <c r="AB34" s="117"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="118"/>
-      <c r="AE34" s="119"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="122"/>
     </row>
     <row r="35" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P35" s="103"/>
-      <c r="Q35" s="117"/>
-      <c r="R35" s="118"/>
-      <c r="S35" s="118"/>
-      <c r="T35" s="119"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="120"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="122"/>
       <c r="U35" s="42"/>
       <c r="V35" s="42"/>
       <c r="W35" s="42"/>
@@ -34446,10 +34439,10 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
       <c r="AA35" s="43"/>
-      <c r="AB35" s="117"/>
-      <c r="AC35" s="118"/>
-      <c r="AD35" s="118"/>
-      <c r="AE35" s="119"/>
+      <c r="AB35" s="120"/>
+      <c r="AC35" s="121"/>
+      <c r="AD35" s="121"/>
+      <c r="AE35" s="122"/>
     </row>
     <row r="36" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="44" t="s">
@@ -34463,19 +34456,19 @@
       <c r="F36" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G36" s="124" t="s">
+      <c r="G36" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="H36" s="125"/>
-      <c r="I36" s="124" t="s">
+      <c r="H36" s="128"/>
+      <c r="I36" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="J36" s="125"/>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="117"/>
-      <c r="R36" s="118"/>
-      <c r="S36" s="118"/>
-      <c r="T36" s="119"/>
+      <c r="J36" s="128"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="121"/>
+      <c r="S36" s="121"/>
+      <c r="T36" s="122"/>
       <c r="U36" s="42"/>
       <c r="V36" s="42"/>
       <c r="W36" s="42"/>
@@ -34483,36 +34476,36 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
       <c r="AA36" s="43"/>
-      <c r="AB36" s="117"/>
-      <c r="AC36" s="118"/>
-      <c r="AD36" s="118"/>
-      <c r="AE36" s="119"/>
+      <c r="AB36" s="120"/>
+      <c r="AC36" s="121"/>
+      <c r="AD36" s="121"/>
+      <c r="AE36" s="122"/>
     </row>
     <row r="37" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="73">
         <v>1</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="130">
+      <c r="D37" s="130"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="133">
         <v>1</v>
       </c>
-      <c r="G37" s="92" t="s">
+      <c r="G37" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="94"/>
-      <c r="I37" s="92" t="s">
+      <c r="H37" s="92"/>
+      <c r="I37" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J37" s="94"/>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="117"/>
-      <c r="R37" s="118"/>
-      <c r="S37" s="118"/>
-      <c r="T37" s="119"/>
+      <c r="J37" s="92"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="121"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="122"/>
       <c r="U37" s="42"/>
       <c r="V37" s="42"/>
       <c r="W37" s="42"/>
@@ -34520,10 +34513,10 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
       <c r="AA37" s="43"/>
-      <c r="AB37" s="117"/>
-      <c r="AC37" s="118"/>
-      <c r="AD37" s="118"/>
-      <c r="AE37" s="119"/>
+      <c r="AB37" s="120"/>
+      <c r="AC37" s="121"/>
+      <c r="AD37" s="121"/>
+      <c r="AE37" s="122"/>
     </row>
     <row r="38" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="74"/>
@@ -34532,20 +34525,20 @@
       </c>
       <c r="D38" s="80"/>
       <c r="E38" s="80"/>
-      <c r="F38" s="131"/>
-      <c r="G38" s="98"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="100"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="98"/>
       <c r="K38" s="42"/>
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="118"/>
-      <c r="S38" s="118"/>
-      <c r="T38" s="119"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="121"/>
+      <c r="S38" s="121"/>
+      <c r="T38" s="122"/>
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
@@ -34553,30 +34546,30 @@
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
       <c r="AA38" s="49"/>
-      <c r="AB38" s="117"/>
-      <c r="AC38" s="118"/>
-      <c r="AD38" s="118"/>
-      <c r="AE38" s="119"/>
+      <c r="AB38" s="120"/>
+      <c r="AC38" s="121"/>
+      <c r="AD38" s="121"/>
+      <c r="AE38" s="122"/>
     </row>
     <row r="39" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="197"/>
-      <c r="E39" s="197"/>
-      <c r="F39" s="197"/>
-      <c r="G39" s="197"/>
-      <c r="H39" s="197"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39" s="42"/>
       <c r="L39" s="42"/>
       <c r="M39" s="42"/>
       <c r="N39" s="42"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="118"/>
-      <c r="S39" s="118"/>
-      <c r="T39" s="119"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="120"/>
+      <c r="R39" s="121"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="122"/>
       <c r="U39" s="7"/>
       <c r="V39" s="7"/>
       <c r="W39" s="7"/>
@@ -34584,17 +34577,17 @@
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
       <c r="AA39" s="49"/>
-      <c r="AB39" s="117"/>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="119"/>
+      <c r="AB39" s="120"/>
+      <c r="AC39" s="121"/>
+      <c r="AD39" s="121"/>
+      <c r="AE39" s="122"/>
     </row>
     <row r="40" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40"/>
-      <c r="C40" s="197"/>
-      <c r="D40" s="197"/>
-      <c r="E40" s="197"/>
-      <c r="F40" s="197"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
       <c r="G40"/>
       <c r="H40"/>
       <c r="I40"/>
@@ -34603,11 +34596,11 @@
       <c r="L40" s="50"/>
       <c r="M40" s="50"/>
       <c r="N40" s="50"/>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="118"/>
-      <c r="S40" s="118"/>
-      <c r="T40" s="119"/>
+      <c r="P40" s="101"/>
+      <c r="Q40" s="120"/>
+      <c r="R40" s="121"/>
+      <c r="S40" s="121"/>
+      <c r="T40" s="122"/>
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
@@ -34615,21 +34608,21 @@
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
       <c r="AA40" s="49"/>
-      <c r="AB40" s="117"/>
-      <c r="AC40" s="118"/>
-      <c r="AD40" s="118"/>
-      <c r="AE40" s="119"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="121"/>
+      <c r="AD40" s="121"/>
+      <c r="AE40" s="122"/>
     </row>
     <row r="41" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K41" s="50"/>
       <c r="L41" s="50"/>
       <c r="M41" s="50"/>
       <c r="N41" s="50"/>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="117"/>
-      <c r="R41" s="118"/>
-      <c r="S41" s="118"/>
-      <c r="T41" s="119"/>
+      <c r="P41" s="101"/>
+      <c r="Q41" s="120"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="122"/>
       <c r="U41" s="7"/>
       <c r="V41" s="7"/>
       <c r="W41" s="7"/>
@@ -34637,10 +34630,10 @@
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
       <c r="AA41" s="49"/>
-      <c r="AB41" s="117"/>
-      <c r="AC41" s="118"/>
-      <c r="AD41" s="118"/>
-      <c r="AE41" s="119"/>
+      <c r="AB41" s="120"/>
+      <c r="AC41" s="121"/>
+      <c r="AD41" s="121"/>
+      <c r="AE41" s="122"/>
     </row>
     <row r="42" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="50"/>
@@ -34656,11 +34649,11 @@
       <c r="L42" s="50"/>
       <c r="M42" s="50"/>
       <c r="N42" s="50"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="117"/>
-      <c r="R42" s="118"/>
-      <c r="S42" s="118"/>
-      <c r="T42" s="119"/>
+      <c r="P42" s="101"/>
+      <c r="Q42" s="120"/>
+      <c r="R42" s="121"/>
+      <c r="S42" s="121"/>
+      <c r="T42" s="122"/>
       <c r="U42" s="63"/>
       <c r="V42" s="63"/>
       <c r="W42" s="63"/>
@@ -34668,10 +34661,10 @@
       <c r="Y42" s="63"/>
       <c r="Z42" s="63"/>
       <c r="AA42" s="49"/>
-      <c r="AB42" s="117"/>
-      <c r="AC42" s="118"/>
-      <c r="AD42" s="118"/>
-      <c r="AE42" s="119"/>
+      <c r="AB42" s="120"/>
+      <c r="AC42" s="121"/>
+      <c r="AD42" s="121"/>
+      <c r="AE42" s="122"/>
     </row>
     <row r="43" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="50"/>
@@ -34687,11 +34680,11 @@
       <c r="L43" s="50"/>
       <c r="M43" s="50"/>
       <c r="N43" s="50"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="117"/>
-      <c r="R43" s="118"/>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
+      <c r="P43" s="101"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="121"/>
+      <c r="T43" s="122"/>
       <c r="U43" s="63"/>
       <c r="V43" s="63"/>
       <c r="W43" s="63"/>
@@ -34699,10 +34692,10 @@
       <c r="Y43" s="63"/>
       <c r="Z43" s="63"/>
       <c r="AA43" s="49"/>
-      <c r="AB43" s="117"/>
-      <c r="AC43" s="118"/>
-      <c r="AD43" s="118"/>
-      <c r="AE43" s="119"/>
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="121"/>
+      <c r="AD43" s="121"/>
+      <c r="AE43" s="122"/>
     </row>
     <row r="44" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="50"/>
@@ -34718,11 +34711,11 @@
       <c r="L44" s="50"/>
       <c r="M44" s="50"/>
       <c r="N44" s="50"/>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
-      <c r="S44" s="118"/>
-      <c r="T44" s="119"/>
+      <c r="P44" s="101"/>
+      <c r="Q44" s="120"/>
+      <c r="R44" s="121"/>
+      <c r="S44" s="121"/>
+      <c r="T44" s="122"/>
       <c r="U44" s="63"/>
       <c r="V44" s="63"/>
       <c r="W44" s="63"/>
@@ -34730,10 +34723,10 @@
       <c r="Y44" s="63"/>
       <c r="Z44" s="63"/>
       <c r="AA44" s="49"/>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="118"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="119"/>
+      <c r="AB44" s="120"/>
+      <c r="AC44" s="121"/>
+      <c r="AD44" s="121"/>
+      <c r="AE44" s="122"/>
     </row>
     <row r="45" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="50"/>
@@ -34749,11 +34742,11 @@
       <c r="L45" s="50"/>
       <c r="M45" s="50"/>
       <c r="N45" s="50"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="120"/>
-      <c r="R45" s="121"/>
-      <c r="S45" s="121"/>
-      <c r="T45" s="122"/>
+      <c r="P45" s="102"/>
+      <c r="Q45" s="123"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="125"/>
       <c r="U45" s="51"/>
       <c r="V45" s="51"/>
       <c r="W45" s="51"/>
@@ -34761,10 +34754,10 @@
       <c r="Y45" s="51"/>
       <c r="Z45" s="51"/>
       <c r="AA45" s="52"/>
-      <c r="AB45" s="120"/>
-      <c r="AC45" s="121"/>
-      <c r="AD45" s="121"/>
-      <c r="AE45" s="122"/>
+      <c r="AB45" s="123"/>
+      <c r="AC45" s="124"/>
+      <c r="AD45" s="124"/>
+      <c r="AE45" s="125"/>
     </row>
     <row r="46" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="P46" s="48"/>
@@ -35003,22 +34996,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I37:J38"/>
-    <mergeCell ref="G37:H38"/>
-    <mergeCell ref="AB21:AE32"/>
-    <mergeCell ref="AB33:AE45"/>
-    <mergeCell ref="B26:J28"/>
+    <mergeCell ref="Q21:T32"/>
+    <mergeCell ref="Q33:T45"/>
+    <mergeCell ref="P21:P32"/>
+    <mergeCell ref="P33:P45"/>
+    <mergeCell ref="F37:F38"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="C39:E39"/>
     <mergeCell ref="C40:E40"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="Q21:T32"/>
-    <mergeCell ref="Q33:T45"/>
-    <mergeCell ref="P21:P32"/>
-    <mergeCell ref="P33:P45"/>
-    <mergeCell ref="F37:F38"/>
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="AB7:AE7"/>
     <mergeCell ref="AB8:AE20"/>
@@ -35030,6 +35018,11 @@
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="Q7:T7"/>
     <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="I37:J38"/>
+    <mergeCell ref="G37:H38"/>
+    <mergeCell ref="AB21:AE32"/>
+    <mergeCell ref="AB33:AE45"/>
+    <mergeCell ref="B26:J28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C38" r:id="rId1"/>
@@ -35045,8 +35038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q126"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -35065,45 +35058,45 @@
       <c r="P2" s="9"/>
     </row>
     <row r="3" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
       <c r="P4" s="9"/>
     </row>
     <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
       <c r="P5" s="9"/>
     </row>
     <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="151"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35117,31 +35110,31 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
       <c r="F9" s="68"/>
-      <c r="G9" s="154" t="s">
+      <c r="G9" s="153" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="153" t="s">
+      <c r="M9" s="152" t="s">
         <v>44</v>
       </c>
       <c r="N9" s="60"/>
     </row>
     <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="161"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="161"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="160"/>
+      <c r="E10" s="160"/>
       <c r="F10" s="68"/>
-      <c r="G10" s="154"/>
+      <c r="G10" s="153"/>
       <c r="H10" s="6"/>
       <c r="L10" s="19"/>
-      <c r="M10" s="153"/>
+      <c r="M10" s="152"/>
       <c r="N10" s="60"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -35149,96 +35142,96 @@
       <c r="C11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="134"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="162" t="s">
+      <c r="M11" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
     </row>
     <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="134"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="139"/>
       <c r="L12" s="67"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="134"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="139"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
       <c r="D14" s="23"/>
-      <c r="G14" s="134" t="s">
+      <c r="G14" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="134"/>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="134"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="139"/>
       <c r="L14" s="24"/>
-      <c r="M14" s="198"/>
-      <c r="N14" s="198"/>
-      <c r="O14" s="198"/>
-      <c r="P14" s="198"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="134"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="139"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="198"/>
-      <c r="N15" s="198"/>
-      <c r="O15" s="198"/>
-      <c r="P15" s="198"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="G16" s="134"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="134"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="134"/>
-      <c r="M16" s="198"/>
-      <c r="N16" s="198"/>
-      <c r="O16" s="198"/>
-      <c r="P16" s="198"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
@@ -35247,13 +35240,13 @@
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
-      <c r="G17" s="134" t="s">
+      <c r="G17" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="139"/>
       <c r="P17" s="24"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35261,11 +35254,11 @@
       <c r="C18" s="23"/>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -35273,12 +35266,12 @@
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="M19" s="154" t="s">
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="139"/>
+      <c r="M19" s="153" t="s">
         <v>39</v>
       </c>
       <c r="N19" s="61"/>
@@ -35291,14 +35284,14 @@
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="H20" s="28"/>
-      <c r="M20" s="154"/>
+      <c r="M20" s="153"/>
       <c r="N20" s="61"/>
       <c r="O20" s="25"/>
       <c r="P20" s="24"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="23"/>
-      <c r="C21" s="200" t="s">
+      <c r="C21" s="148" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="23"/>
@@ -35312,10 +35305,10 @@
       <c r="P21" s="24"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="202"/>
+      <c r="C22" s="149"/>
       <c r="D22"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="137" t="s">
+      <c r="G22" s="164"/>
+      <c r="H22" s="167" t="s">
         <v>29</v>
       </c>
       <c r="I22" s="81"/>
@@ -35324,44 +35317,44 @@
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="201"/>
+      <c r="C23" s="150"/>
       <c r="D23"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="138"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="168"/>
       <c r="I23" s="81"/>
       <c r="J23" s="81"/>
-      <c r="M23" s="142" t="s">
+      <c r="M23" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="N23" s="142"/>
+      <c r="N23" s="170"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="199"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="138"/>
+      <c r="D24" s="85"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="168"/>
       <c r="I24" s="81"/>
       <c r="J24" s="81"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="142"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="164"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="81"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="139"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="169"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
-      <c r="M25" s="146" t="s">
+      <c r="M25" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
+      <c r="N25" s="142"/>
+      <c r="O25" s="142"/>
+      <c r="P25" s="142"/>
       <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35370,19 +35363,19 @@
         <v>2.5723807811736998</v>
       </c>
       <c r="D26"/>
-      <c r="G26" s="132" t="s">
+      <c r="G26" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="135">
+      <c r="H26" s="140">
         <f>AVERAGE(C26,C125)</f>
         <v>3.2595374584197949</v>
       </c>
       <c r="I26" s="81"/>
       <c r="J26" s="81"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="142"/>
+      <c r="O26" s="142"/>
+      <c r="P26" s="142"/>
       <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35391,14 +35384,14 @@
         <v>2.5736870765686</v>
       </c>
       <c r="D27"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="136"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="141"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="146"/>
-      <c r="O27" s="146"/>
-      <c r="P27" s="146"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
@@ -35406,19 +35399,19 @@
         <v>2.4823212623596098</v>
       </c>
       <c r="D28"/>
-      <c r="G28" s="132" t="s">
+      <c r="G28" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="135">
+      <c r="H28" s="140">
         <f>MAX(C26,C125)</f>
         <v>3.94669413566589</v>
       </c>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
-      <c r="M28" s="146"/>
-      <c r="N28" s="146"/>
-      <c r="O28" s="146"/>
-      <c r="P28" s="146"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="142"/>
+      <c r="O28" s="142"/>
+      <c r="P28" s="142"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
@@ -35426,16 +35419,16 @@
         <v>3.7978563308715798</v>
       </c>
       <c r="D29"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="136"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="141"/>
       <c r="I29" s="81"/>
       <c r="J29" s="81"/>
-      <c r="M29" s="147" t="s">
+      <c r="M29" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
@@ -35443,19 +35436,19 @@
         <v>2.5765964984893799</v>
       </c>
       <c r="D30"/>
-      <c r="G30" s="132" t="s">
+      <c r="G30" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="140">
         <f>MIN(C26,C125)</f>
         <v>2.5723807811736998</v>
       </c>
       <c r="I30" s="81"/>
       <c r="J30" s="81"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
@@ -35463,14 +35456,14 @@
         <v>2.4860234260559002</v>
       </c>
       <c r="D31"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="136"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="141"/>
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
@@ -35519,9 +35512,9 @@
       <c r="D36"/>
       <c r="F36" s="9"/>
       <c r="I36" s="9"/>
-      <c r="M36" s="155"/>
-      <c r="N36" s="156"/>
-      <c r="O36" s="143" t="s">
+      <c r="M36" s="154"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="171" t="s">
         <v>29</v>
       </c>
       <c r="P36" s="81"/>
@@ -35534,9 +35527,9 @@
       <c r="D37"/>
       <c r="F37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="144"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="157"/>
+      <c r="O37" s="172"/>
       <c r="P37" s="81"/>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35547,9 +35540,9 @@
       <c r="D38"/>
       <c r="F38" s="9"/>
       <c r="I38" s="9"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="158"/>
-      <c r="O38" s="144"/>
+      <c r="M38" s="156"/>
+      <c r="N38" s="157"/>
+      <c r="O38" s="172"/>
       <c r="P38" s="81"/>
     </row>
     <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35560,9 +35553,9 @@
       <c r="D39"/>
       <c r="F39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="160"/>
-      <c r="O39" s="145"/>
+      <c r="M39" s="158"/>
+      <c r="N39" s="159"/>
+      <c r="O39" s="173"/>
       <c r="P39" s="81"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35573,11 +35566,11 @@
       <c r="D40"/>
       <c r="F40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="M40" s="148" t="s">
+      <c r="M40" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="149"/>
-      <c r="O40" s="140" t="s">
+      <c r="N40" s="145"/>
+      <c r="O40" s="135" t="s">
         <v>26</v>
       </c>
       <c r="P40" s="81"/>
@@ -35590,9 +35583,9 @@
       <c r="D41"/>
       <c r="F41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="M41" s="150"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="141"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="136"/>
       <c r="P41" s="81"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35603,11 +35596,11 @@
       <c r="D42"/>
       <c r="F42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="M42" s="148" t="s">
+      <c r="M42" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="N42" s="149"/>
-      <c r="O42" s="140" t="s">
+      <c r="N42" s="145"/>
+      <c r="O42" s="135" t="s">
         <v>27</v>
       </c>
       <c r="P42" s="81"/>
@@ -35620,9 +35613,9 @@
       <c r="D43"/>
       <c r="F43" s="9"/>
       <c r="I43" s="9"/>
-      <c r="M43" s="150"/>
-      <c r="N43" s="151"/>
-      <c r="O43" s="141"/>
+      <c r="M43" s="146"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="136"/>
       <c r="P43" s="81"/>
     </row>
     <row r="44" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -35633,11 +35626,11 @@
       <c r="D44"/>
       <c r="F44" s="9"/>
       <c r="I44" s="9"/>
-      <c r="M44" s="148" t="s">
+      <c r="M44" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="149"/>
-      <c r="O44" s="140" t="s">
+      <c r="N44" s="145"/>
+      <c r="O44" s="135" t="s">
         <v>28</v>
       </c>
       <c r="P44" s="81"/>
@@ -35650,9 +35643,9 @@
       <c r="D45"/>
       <c r="F45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="M45" s="150"/>
-      <c r="N45" s="151"/>
-      <c r="O45" s="141"/>
+      <c r="M45" s="146"/>
+      <c r="N45" s="147"/>
+      <c r="O45" s="136"/>
       <c r="P45" s="81"/>
     </row>
     <row r="46" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36418,11 +36411,6 @@
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="M23:N24"/>
     <mergeCell ref="O36:O39"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="M25:P28"/>
-    <mergeCell ref="M29:P31"/>
-    <mergeCell ref="M40:N41"/>
-    <mergeCell ref="O42:O43"/>
     <mergeCell ref="O44:O45"/>
     <mergeCell ref="G26:G27"/>
     <mergeCell ref="G28:G29"/>
@@ -36432,6 +36420,11 @@
     <mergeCell ref="H30:H31"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H26:H27"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="M25:P28"/>
+    <mergeCell ref="M29:P31"/>
+    <mergeCell ref="M40:N41"/>
+    <mergeCell ref="O42:O43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -36443,8 +36436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CA331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36459,16 +36452,16 @@
     <row r="1" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
@@ -36481,14 +36474,14 @@
       <c r="S3"/>
     </row>
     <row r="4" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="176"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="176"/>
-      <c r="F4" s="176"/>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
+      <c r="B4" s="182"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="182"/>
+      <c r="I4" s="182"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -36501,14 +36494,14 @@
       <c r="S4"/>
     </row>
     <row r="5" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-      <c r="D5" s="176"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="176"/>
-      <c r="G5" s="176"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="182"/>
+      <c r="I5" s="182"/>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
@@ -36521,14 +36514,14 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="176"/>
-      <c r="G6" s="176"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
       <c r="J6"/>
       <c r="K6"/>
       <c r="L6"/>
@@ -36544,60 +36537,60 @@
     <row r="8" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
       <c r="H10" s="72"/>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="153" t="s">
         <v>40</v>
       </c>
       <c r="O10" s="72"/>
-      <c r="P10" s="154" t="s">
+      <c r="P10" s="153" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="72"/>
       <c r="R10" s="72"/>
       <c r="U10" s="81"/>
-      <c r="V10" s="172" t="s">
+      <c r="V10" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="W10" s="172"/>
-      <c r="X10" s="172" t="s">
+      <c r="W10" s="178"/>
+      <c r="X10" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="172"/>
+      <c r="Y10" s="178"/>
     </row>
     <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
       <c r="H11" s="72"/>
-      <c r="I11" s="154"/>
+      <c r="I11" s="153"/>
       <c r="O11" s="72"/>
-      <c r="P11" s="154"/>
+      <c r="P11" s="153"/>
       <c r="Q11" s="72"/>
       <c r="R11" s="72"/>
       <c r="U11" s="81"/>
-      <c r="V11" s="172"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="172"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="178"/>
+      <c r="Y11" s="178"/>
     </row>
     <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
       <c r="H12" s="72"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
@@ -36609,19 +36602,19 @@
       <c r="Q12" s="72"/>
       <c r="R12" s="72"/>
       <c r="U12" s="81"/>
-      <c r="V12" s="172"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="172"/>
+      <c r="V12" s="178"/>
+      <c r="W12" s="178"/>
+      <c r="X12" s="178"/>
+      <c r="Y12" s="178"/>
     </row>
     <row r="13" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="70"/>
       <c r="I13" s="3" t="s">
         <v>59</v>
@@ -36633,64 +36626,64 @@
       <c r="Q13" s="70"/>
       <c r="R13" s="70"/>
       <c r="U13" s="81"/>
-      <c r="V13" s="172"/>
-      <c r="W13" s="172"/>
-      <c r="X13" s="172"/>
-      <c r="Y13" s="172"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
     </row>
     <row r="14" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="70"/>
-      <c r="I14" s="170" t="s">
+      <c r="I14" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
       <c r="O14" s="70"/>
       <c r="P14" s="70"/>
       <c r="Q14" s="70"/>
       <c r="R14" s="70"/>
       <c r="U14" s="81"/>
-      <c r="V14" s="171">
+      <c r="V14" s="177">
         <f>AVERAGE(J55,AA55,AR55,BI55,BZ55)/AVERAGE(H55,Y55,AP55,BG55,BX55)</f>
         <v>6.5982194463464605</v>
       </c>
-      <c r="W14" s="171"/>
-      <c r="X14" s="171">
+      <c r="W14" s="177"/>
+      <c r="X14" s="177">
         <f>-AVERAGE(K55,AB55,AS55,CA55,BJ55)+AVERAGE(I55,Z55,AQ55,BH55,BY55)</f>
         <v>3.0824212560000341E-2</v>
       </c>
-      <c r="Y14" s="171"/>
+      <c r="Y14" s="177"/>
     </row>
     <row r="15" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="70"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
       <c r="O15" s="70"/>
       <c r="P15" s="70"/>
       <c r="Q15" s="70"/>
       <c r="R15" s="70"/>
       <c r="U15" s="81"/>
-      <c r="V15" s="171"/>
-      <c r="W15" s="171"/>
-      <c r="X15" s="171"/>
-      <c r="Y15" s="171"/>
+      <c r="V15" s="177"/>
+      <c r="W15" s="177"/>
+      <c r="X15" s="177"/>
+      <c r="Y15" s="177"/>
     </row>
     <row r="16" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
@@ -36700,12 +36693,12 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="176"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -36722,49 +36715,49 @@
         <v>34</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="I18" s="153" t="s">
+      <c r="I18" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="P18" s="142" t="s">
+      <c r="P18" s="170" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
+      <c r="Q18" s="170"/>
+      <c r="R18" s="170"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="153"/>
+      <c r="I19" s="152"/>
       <c r="J19" s="19"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="142"/>
-      <c r="R19" s="142"/>
+      <c r="P19" s="170"/>
+      <c r="Q19" s="170"/>
+      <c r="R19" s="170"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="191" t="s">
+      <c r="I20" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="191"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="191"/>
-      <c r="P20" s="146" t="s">
+      <c r="J20" s="197"/>
+      <c r="K20" s="197"/>
+      <c r="L20" s="197"/>
+      <c r="P20" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="146"/>
-      <c r="S20" s="146"/>
-      <c r="T20" s="146"/>
+      <c r="Q20" s="142"/>
+      <c r="R20" s="142"/>
+      <c r="S20" s="142"/>
+      <c r="T20" s="142"/>
     </row>
     <row r="21" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I21" s="191"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="191"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="146"/>
-      <c r="S21" s="146"/>
-      <c r="T21" s="146"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="P21" s="142"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="142"/>
+      <c r="S21" s="142"/>
+      <c r="T21" s="142"/>
       <c r="W21"/>
       <c r="X21"/>
       <c r="Y21"/>
@@ -36781,15 +36774,15 @@
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="191"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="191"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="146"/>
-      <c r="S22" s="146"/>
-      <c r="T22" s="146"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
+      <c r="L22" s="197"/>
+      <c r="P22" s="142"/>
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="142"/>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
@@ -36803,15 +36796,15 @@
       <c r="AG22"/>
     </row>
     <row r="23" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I23" s="191"/>
-      <c r="J23" s="191"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="191"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="146"/>
-      <c r="S23" s="146"/>
-      <c r="T23" s="146"/>
+      <c r="I23" s="197"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197"/>
+      <c r="L23" s="197"/>
+      <c r="P23" s="142"/>
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
       <c r="W23"/>
       <c r="X23"/>
       <c r="Y23"/>
@@ -36825,19 +36818,19 @@
       <c r="AG23"/>
     </row>
     <row r="24" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I24" s="191" t="s">
+      <c r="I24" s="197" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="191"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="191"/>
-      <c r="P24" s="146" t="s">
+      <c r="J24" s="197"/>
+      <c r="K24" s="197"/>
+      <c r="L24" s="197"/>
+      <c r="P24" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="146"/>
-      <c r="S24" s="146"/>
-      <c r="T24" s="146"/>
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="142"/>
       <c r="W24"/>
       <c r="X24"/>
       <c r="Y24"/>
@@ -36851,37 +36844,37 @@
       <c r="AG24"/>
     </row>
     <row r="25" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I25" s="191"/>
-      <c r="J25" s="191"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="191"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="146"/>
-      <c r="S25" s="146"/>
-      <c r="T25" s="146"/>
+      <c r="I25" s="197"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="197"/>
+      <c r="L25" s="197"/>
+      <c r="P25" s="142"/>
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="142"/>
     </row>
     <row r="26" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I26" s="191"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="191"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
+      <c r="I26" s="197"/>
+      <c r="J26" s="197"/>
+      <c r="K26" s="197"/>
+      <c r="L26" s="197"/>
+      <c r="P26" s="142"/>
+      <c r="Q26" s="142"/>
+      <c r="R26" s="142"/>
+      <c r="S26" s="142"/>
+      <c r="T26" s="142"/>
     </row>
     <row r="27" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="191"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
+      <c r="L27" s="197"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
     </row>
     <row r="28" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="P28" s="76"/>
@@ -36892,267 +36885,267 @@
     </row>
     <row r="29" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E29" s="6"/>
-      <c r="H29" s="168" t="s">
+      <c r="H29" s="174" t="s">
         <v>61</v>
       </c>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="174"/>
       <c r="S29" s="4"/>
-      <c r="Y29" s="168" t="s">
+      <c r="Y29" s="174" t="s">
         <v>60</v>
       </c>
-      <c r="Z29" s="168"/>
-      <c r="AA29" s="168"/>
-      <c r="AP29" s="168" t="s">
+      <c r="Z29" s="174"/>
+      <c r="AA29" s="174"/>
+      <c r="AP29" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="AQ29" s="168"/>
-      <c r="AR29" s="168"/>
-      <c r="BG29" s="168" t="s">
+      <c r="AQ29" s="174"/>
+      <c r="AR29" s="174"/>
+      <c r="BG29" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="BH29" s="168"/>
-      <c r="BI29" s="168"/>
-      <c r="BX29" s="168" t="s">
+      <c r="BH29" s="174"/>
+      <c r="BI29" s="174"/>
+      <c r="BX29" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="BY29" s="168"/>
-      <c r="BZ29" s="168"/>
+      <c r="BY29" s="174"/>
+      <c r="BZ29" s="174"/>
     </row>
     <row r="30" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E30" s="6"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
       <c r="S30" s="4"/>
-      <c r="Y30" s="168"/>
-      <c r="Z30" s="168"/>
-      <c r="AA30" s="168"/>
-      <c r="AP30" s="168"/>
-      <c r="AQ30" s="168"/>
-      <c r="AR30" s="168"/>
-      <c r="BG30" s="168"/>
-      <c r="BH30" s="168"/>
-      <c r="BI30" s="168"/>
-      <c r="BX30" s="168"/>
-      <c r="BY30" s="168"/>
-      <c r="BZ30" s="168"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AP30" s="174"/>
+      <c r="AQ30" s="174"/>
+      <c r="AR30" s="174"/>
+      <c r="BG30" s="174"/>
+      <c r="BH30" s="174"/>
+      <c r="BI30" s="174"/>
+      <c r="BX30" s="174"/>
+      <c r="BY30" s="174"/>
+      <c r="BZ30" s="174"/>
     </row>
     <row r="31" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:78" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="177" t="s">
+      <c r="B33" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
-      <c r="S33" s="177" t="s">
+      <c r="C33" s="184"/>
+      <c r="D33" s="184"/>
+      <c r="E33" s="185"/>
+      <c r="S33" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="T33" s="178"/>
-      <c r="U33" s="178"/>
-      <c r="V33" s="179"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="185"/>
       <c r="AI33" s="6"/>
-      <c r="AJ33" s="177" t="s">
+      <c r="AJ33" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="AK33" s="178"/>
-      <c r="AL33" s="178"/>
-      <c r="AM33" s="179"/>
-      <c r="BA33" s="177" t="s">
+      <c r="AK33" s="184"/>
+      <c r="AL33" s="184"/>
+      <c r="AM33" s="185"/>
+      <c r="BA33" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="BB33" s="178"/>
-      <c r="BC33" s="178"/>
-      <c r="BD33" s="179"/>
-      <c r="BR33" s="177" t="s">
+      <c r="BB33" s="184"/>
+      <c r="BC33" s="184"/>
+      <c r="BD33" s="185"/>
+      <c r="BR33" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="BS33" s="178"/>
-      <c r="BT33" s="178"/>
-      <c r="BU33" s="179"/>
+      <c r="BS33" s="184"/>
+      <c r="BT33" s="184"/>
+      <c r="BU33" s="185"/>
     </row>
     <row r="34" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="180"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="182"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="188"/>
       <c r="R34" s="8"/>
-      <c r="S34" s="180"/>
-      <c r="T34" s="181"/>
-      <c r="U34" s="181"/>
-      <c r="V34" s="182"/>
-      <c r="AJ34" s="180"/>
-      <c r="AK34" s="181"/>
-      <c r="AL34" s="181"/>
-      <c r="AM34" s="182"/>
-      <c r="BA34" s="180"/>
-      <c r="BB34" s="181"/>
-      <c r="BC34" s="181"/>
-      <c r="BD34" s="182"/>
-      <c r="BR34" s="180"/>
-      <c r="BS34" s="181"/>
-      <c r="BT34" s="181"/>
-      <c r="BU34" s="182"/>
+      <c r="S34" s="186"/>
+      <c r="T34" s="187"/>
+      <c r="U34" s="187"/>
+      <c r="V34" s="188"/>
+      <c r="AJ34" s="186"/>
+      <c r="AK34" s="187"/>
+      <c r="AL34" s="187"/>
+      <c r="AM34" s="188"/>
+      <c r="BA34" s="186"/>
+      <c r="BB34" s="187"/>
+      <c r="BC34" s="187"/>
+      <c r="BD34" s="188"/>
+      <c r="BR34" s="186"/>
+      <c r="BS34" s="187"/>
+      <c r="BT34" s="187"/>
+      <c r="BU34" s="188"/>
     </row>
     <row r="35" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="183" t="s">
+      <c r="B35" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="184"/>
-      <c r="D35" s="187" t="s">
+      <c r="C35" s="190"/>
+      <c r="D35" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="188"/>
+      <c r="E35" s="194"/>
       <c r="R35" s="8"/>
-      <c r="S35" s="183" t="s">
+      <c r="S35" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="T35" s="184"/>
-      <c r="U35" s="187" t="s">
+      <c r="T35" s="190"/>
+      <c r="U35" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="V35" s="188"/>
-      <c r="AJ35" s="183" t="s">
+      <c r="V35" s="194"/>
+      <c r="AJ35" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="AK35" s="184"/>
-      <c r="AL35" s="187" t="s">
+      <c r="AK35" s="190"/>
+      <c r="AL35" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="AM35" s="188"/>
-      <c r="BA35" s="183" t="s">
+      <c r="AM35" s="194"/>
+      <c r="BA35" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="BB35" s="184"/>
-      <c r="BC35" s="187" t="s">
+      <c r="BB35" s="190"/>
+      <c r="BC35" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="BD35" s="188"/>
-      <c r="BR35" s="183" t="s">
+      <c r="BD35" s="194"/>
+      <c r="BR35" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="BS35" s="184"/>
-      <c r="BT35" s="187" t="s">
+      <c r="BS35" s="190"/>
+      <c r="BT35" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="BU35" s="188"/>
+      <c r="BU35" s="194"/>
     </row>
     <row r="36" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="185"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="190"/>
+      <c r="B36" s="191"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="196"/>
       <c r="R36" s="8"/>
-      <c r="S36" s="185"/>
-      <c r="T36" s="186"/>
-      <c r="U36" s="189"/>
-      <c r="V36" s="190"/>
-      <c r="AJ36" s="185"/>
-      <c r="AK36" s="186"/>
-      <c r="AL36" s="189"/>
-      <c r="AM36" s="190"/>
-      <c r="BA36" s="185"/>
-      <c r="BB36" s="186"/>
-      <c r="BC36" s="189"/>
-      <c r="BD36" s="190"/>
-      <c r="BR36" s="185"/>
-      <c r="BS36" s="186"/>
-      <c r="BT36" s="189"/>
-      <c r="BU36" s="190"/>
+      <c r="S36" s="191"/>
+      <c r="T36" s="192"/>
+      <c r="U36" s="195"/>
+      <c r="V36" s="196"/>
+      <c r="AJ36" s="191"/>
+      <c r="AK36" s="192"/>
+      <c r="AL36" s="195"/>
+      <c r="AM36" s="196"/>
+      <c r="BA36" s="191"/>
+      <c r="BB36" s="192"/>
+      <c r="BC36" s="195"/>
+      <c r="BD36" s="196"/>
+      <c r="BR36" s="191"/>
+      <c r="BS36" s="192"/>
+      <c r="BT36" s="195"/>
+      <c r="BU36" s="196"/>
     </row>
     <row r="37" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="192" t="s">
+      <c r="B37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="192" t="s">
+      <c r="C37" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="192" t="s">
+      <c r="D37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="192" t="s">
+      <c r="E37" s="198" t="s">
         <v>49</v>
       </c>
       <c r="R37" s="8"/>
-      <c r="S37" s="192" t="s">
+      <c r="S37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="T37" s="192" t="s">
+      <c r="T37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="U37" s="192" t="s">
+      <c r="U37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="V37" s="192" t="s">
+      <c r="V37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="AJ37" s="192" t="s">
+      <c r="AJ37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="AK37" s="192" t="s">
+      <c r="AK37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="AL37" s="192" t="s">
+      <c r="AL37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="AM37" s="192" t="s">
+      <c r="AM37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="BA37" s="192" t="s">
+      <c r="BA37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="BB37" s="192" t="s">
+      <c r="BB37" s="198" t="s">
         <v>49</v>
       </c>
-      <c r="BC37" s="192" t="s">
+      <c r="BC37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="BD37" s="192" t="s">
+      <c r="BD37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="BR37" s="192" t="s">
+      <c r="BR37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="BS37" s="192" t="s">
+      <c r="BS37" s="198" t="s">
         <v>50</v>
       </c>
-      <c r="BT37" s="192" t="s">
+      <c r="BT37" s="198" t="s">
         <v>47</v>
       </c>
-      <c r="BU37" s="192" t="s">
+      <c r="BU37" s="198" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="193"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
       <c r="R38" s="8"/>
-      <c r="S38" s="193"/>
-      <c r="T38" s="193"/>
-      <c r="U38" s="193"/>
-      <c r="V38" s="193"/>
-      <c r="AJ38" s="193"/>
-      <c r="AK38" s="193"/>
-      <c r="AL38" s="193"/>
-      <c r="AM38" s="193"/>
-      <c r="BA38" s="193"/>
-      <c r="BB38" s="193"/>
-      <c r="BC38" s="193"/>
-      <c r="BD38" s="193"/>
-      <c r="BR38" s="193"/>
-      <c r="BS38" s="193"/>
-      <c r="BT38" s="193"/>
-      <c r="BU38" s="193"/>
+      <c r="S38" s="199"/>
+      <c r="T38" s="199"/>
+      <c r="U38" s="199"/>
+      <c r="V38" s="199"/>
+      <c r="AJ38" s="199"/>
+      <c r="AK38" s="199"/>
+      <c r="AL38" s="199"/>
+      <c r="AM38" s="199"/>
+      <c r="BA38" s="199"/>
+      <c r="BB38" s="199"/>
+      <c r="BC38" s="199"/>
+      <c r="BD38" s="199"/>
+      <c r="BR38" s="199"/>
+      <c r="BS38" s="199"/>
+      <c r="BT38" s="199"/>
+      <c r="BU38" s="199"/>
     </row>
     <row r="39" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="194"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -37166,22 +37159,22 @@
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="194"/>
-      <c r="T39" s="194"/>
-      <c r="U39" s="194"/>
-      <c r="V39" s="194"/>
-      <c r="AJ39" s="194"/>
-      <c r="AK39" s="194"/>
-      <c r="AL39" s="194"/>
-      <c r="AM39" s="194"/>
-      <c r="BA39" s="194"/>
-      <c r="BB39" s="194"/>
-      <c r="BC39" s="194"/>
-      <c r="BD39" s="194"/>
-      <c r="BR39" s="194"/>
-      <c r="BS39" s="194"/>
-      <c r="BT39" s="194"/>
-      <c r="BU39" s="194"/>
+      <c r="S39" s="200"/>
+      <c r="T39" s="200"/>
+      <c r="U39" s="200"/>
+      <c r="V39" s="200"/>
+      <c r="AJ39" s="200"/>
+      <c r="AK39" s="200"/>
+      <c r="AL39" s="200"/>
+      <c r="AM39" s="200"/>
+      <c r="BA39" s="200"/>
+      <c r="BB39" s="200"/>
+      <c r="BC39" s="200"/>
+      <c r="BD39" s="200"/>
+      <c r="BR39" s="200"/>
+      <c r="BS39" s="200"/>
+      <c r="BT39" s="200"/>
+      <c r="BU39" s="200"/>
     </row>
     <row r="40" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="75">
@@ -38171,15 +38164,15 @@
       <c r="E53" s="15">
         <v>0.98397946000000003</v>
       </c>
-      <c r="G53" s="173"/>
-      <c r="H53" s="195" t="s">
+      <c r="G53" s="179"/>
+      <c r="H53" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="I53" s="196"/>
-      <c r="J53" s="175" t="s">
+      <c r="I53" s="202"/>
+      <c r="J53" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="175"/>
+      <c r="K53" s="181"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -38199,15 +38192,15 @@
       <c r="V53" s="16">
         <v>0.93976649999999995</v>
       </c>
-      <c r="X53" s="173"/>
-      <c r="Y53" s="175" t="s">
+      <c r="X53" s="179"/>
+      <c r="Y53" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="Z53" s="175"/>
-      <c r="AA53" s="175" t="s">
+      <c r="Z53" s="181"/>
+      <c r="AA53" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AB53" s="175"/>
+      <c r="AB53" s="181"/>
       <c r="AJ53" s="16">
         <v>1.7952919006347601E-2</v>
       </c>
@@ -38220,15 +38213,15 @@
       <c r="AM53" s="16">
         <v>0.89897459999999996</v>
       </c>
-      <c r="AO53" s="173"/>
-      <c r="AP53" s="175" t="s">
+      <c r="AO53" s="179"/>
+      <c r="AP53" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="AQ53" s="175"/>
-      <c r="AR53" s="175" t="s">
+      <c r="AQ53" s="181"/>
+      <c r="AR53" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AS53" s="175"/>
+      <c r="AS53" s="181"/>
       <c r="BA53" s="16">
         <v>2.81293392181396E-2</v>
       </c>
@@ -38241,11 +38234,11 @@
       <c r="BD53" s="16">
         <v>0.97403234000000005</v>
       </c>
-      <c r="BF53" s="173"/>
-      <c r="BG53" s="175" t="s">
+      <c r="BF53" s="179"/>
+      <c r="BG53" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="BH53" s="175"/>
+      <c r="BH53" s="181"/>
       <c r="BI53" s="62" t="s">
         <v>30</v>
       </c>
@@ -38262,15 +38255,15 @@
       <c r="BU53" s="16">
         <v>0.99415589999999998</v>
       </c>
-      <c r="BW53" s="173"/>
-      <c r="BX53" s="175" t="s">
+      <c r="BW53" s="179"/>
+      <c r="BX53" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="BY53" s="175"/>
-      <c r="BZ53" s="175" t="s">
+      <c r="BY53" s="181"/>
+      <c r="BZ53" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="CA53" s="175"/>
+      <c r="CA53" s="181"/>
     </row>
     <row r="54" spans="2:79" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="75">
@@ -38285,7 +38278,7 @@
       <c r="E54" s="15">
         <v>0.98577360000000003</v>
       </c>
-      <c r="G54" s="174"/>
+      <c r="G54" s="180"/>
       <c r="H54" s="11" t="s">
         <v>47</v>
       </c>
@@ -38317,7 +38310,7 @@
       <c r="V54" s="16">
         <v>0.89767914999999998</v>
       </c>
-      <c r="X54" s="174"/>
+      <c r="X54" s="180"/>
       <c r="Y54" s="11" t="s">
         <v>47</v>
       </c>
@@ -38342,7 +38335,7 @@
       <c r="AM54" s="16">
         <v>0.89865150000000005</v>
       </c>
-      <c r="AO54" s="174"/>
+      <c r="AO54" s="180"/>
       <c r="AP54" s="13" t="s">
         <v>47</v>
       </c>
@@ -38367,7 +38360,7 @@
       <c r="BD54" s="16">
         <v>0.96618360000000003</v>
       </c>
-      <c r="BF54" s="174"/>
+      <c r="BF54" s="180"/>
       <c r="BG54" s="14" t="s">
         <v>47</v>
       </c>
@@ -38392,7 +38385,7 @@
       <c r="BU54" s="16">
         <v>0.99526166999999999</v>
       </c>
-      <c r="BW54" s="174"/>
+      <c r="BW54" s="180"/>
       <c r="BX54" s="14" t="s">
         <v>48</v>
       </c>
